--- a/public/templates/mau-nhap-nganh.xlsx
+++ b/public/templates/mau-nhap-nganh.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DU AN QUAN LY SINH VIEN VA KET QUA HOC TAP\Frontend\free-nextjs-admin-dashboard-main\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BE26AE3-3595-4F81-AA48-977858CFC96B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách ngành" sheetId="1" r:id="rId1"/>
@@ -24,18 +25,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>Mã Ngành</t>
-  </si>
-  <si>
-    <t>Tên Ngành</t>
-  </si>
-  <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
-    <t>Mã khoa</t>
-  </si>
-  <si>
     <t>CNTT01</t>
   </si>
   <si>
@@ -193,12 +182,24 @@
   </si>
   <si>
     <t>NN</t>
+  </si>
+  <si>
+    <t>Mã khoa (Required)</t>
+  </si>
+  <si>
+    <t>Mô tả (Required)</t>
+  </si>
+  <si>
+    <t>Tên Ngành (Required)</t>
+  </si>
+  <si>
+    <t>Mã Ngành (Required)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +568,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +581,7 @@
     <col min="2" max="2" width="29.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="74.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -605,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -622,16 +623,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -639,16 +640,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -656,16 +657,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -673,16 +674,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -690,16 +691,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -707,16 +708,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,16 +725,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -741,16 +742,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -758,16 +759,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -775,16 +776,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -792,16 +793,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -809,16 +810,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -826,16 +827,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -843,16 +844,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
